--- a/data/strategies/中金场内策略结果.xlsx
+++ b/data/strategies/中金场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
+  <si>
+    <t>鹏华中证细分化工产业主题ETF</t>
+  </si>
   <si>
     <t>华夏国证半导体芯片ETF</t>
   </si>
   <si>
+    <t>国泰中证全指家电ETF</t>
+  </si>
+  <si>
+    <t>易方达沪深300非银ETF</t>
+  </si>
+  <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>国泰中证全指家电ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证细分化工产业主题ETF</t>
-  </si>
-  <si>
-    <t>易方达沪深300非银ETF</t>
-  </si>
-  <si>
     <t>三条主线</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.83%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>19.44%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>9.49%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>17.28%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>17.93%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>23.30%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>7.96%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>16.52%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>13.38%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>20.23%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>18.36%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>23.07%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,109 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159870.OF</t>
+  </si>
+  <si>
     <t>159995.OF</t>
   </si>
   <si>
+    <t>159996.OF</t>
+  </si>
+  <si>
+    <t>512070.OF</t>
+  </si>
+  <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>159996.OF</t>
-  </si>
-  <si>
-    <t>159870.OF</t>
-  </si>
-  <si>
-    <t>512070.OF</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>-1.94%</t>
-  </si>
-  <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>-3.21%</t>
-  </si>
-  <si>
-    <t>38.65%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>7.60%</t>
-  </si>
-  <si>
-    <t>18.93%</t>
-  </si>
-  <si>
-    <t>-1.28%</t>
-  </si>
-  <si>
-    <t>22.77%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>15.86%</t>
-  </si>
-  <si>
-    <t>-11.74%</t>
-  </si>
-  <si>
-    <t>38.12%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>9.97%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>15.12%</t>
-  </si>
-  <si>
-    <t>32.22%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>15.06%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>20.76%</t>
-  </si>
-  <si>
-    <t>35.03%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>20.26%</t>
-  </si>
-  <si>
-    <t>33.36%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
+    <t>6.83%</t>
+  </si>
+  <si>
+    <t>20.70%</t>
+  </si>
+  <si>
+    <t>-2.45%</t>
+  </si>
+  <si>
+    <t>-7.82%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>33.16%</t>
+  </si>
+  <si>
+    <t>-0.33%</t>
+  </si>
+  <si>
+    <t>-6.88%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>21.19%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-17.77%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>23.52%</t>
+  </si>
+  <si>
+    <t>45.17%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>34.23%</t>
+  </si>
+  <si>
+    <t>15.26%</t>
+  </si>
+  <si>
+    <t>22.08%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>35.91%</t>
+  </si>
+  <si>
+    <t>20.05%</t>
+  </si>
+  <si>
+    <t>22.68%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,304 +254,304 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
   </si>
   <si>
     <t>600690.SH</t>
   </si>
   <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
     <t>603486.SH</t>
   </si>
   <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>688169.SH</t>
+  </si>
+  <si>
     <t>600309.SH</t>
   </si>
   <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
     <t>603501.SH</t>
   </si>
   <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
     <t>002508.SZ</t>
   </si>
   <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
   </si>
   <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>300782.SZ</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>002709.SZ</t>
-  </si>
-  <si>
-    <t>603986.SH</t>
-  </si>
-  <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>002049.SZ</t>
-  </si>
-  <si>
-    <t>603195.SH</t>
-  </si>
-  <si>
-    <t>5.27%</t>
-  </si>
-  <si>
-    <t>5.01%</t>
-  </si>
-  <si>
-    <t>4.34%</t>
-  </si>
-  <si>
-    <t>3.91%</t>
-  </si>
-  <si>
-    <t>3.90%</t>
-  </si>
-  <si>
-    <t>2.39%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>2.06%</t>
-  </si>
-  <si>
-    <t>1.98%</t>
-  </si>
-  <si>
-    <t>1.69%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
+    <t>478.37%</t>
+  </si>
+  <si>
+    <t>467.25%</t>
+  </si>
+  <si>
+    <t>461.47%</t>
+  </si>
+  <si>
+    <t>441.74%</t>
+  </si>
+  <si>
+    <t>375.70%</t>
+  </si>
+  <si>
+    <t>276.84%</t>
+  </si>
+  <si>
+    <t>241.86%</t>
+  </si>
+  <si>
+    <t>212.16%</t>
+  </si>
+  <si>
+    <t>194.51%</t>
+  </si>
+  <si>
+    <t>193.60%</t>
+  </si>
+  <si>
+    <t>186.27%</t>
+  </si>
+  <si>
+    <t>164.35%</t>
+  </si>
+  <si>
+    <t>160.62%</t>
+  </si>
+  <si>
+    <t>158.70%</t>
+  </si>
+  <si>
+    <t>149.67%</t>
+  </si>
+  <si>
+    <t>145.96%</t>
+  </si>
+  <si>
+    <t>135.24%</t>
+  </si>
+  <si>
+    <t>129.20%</t>
+  </si>
+  <si>
+    <t>117.59%</t>
+  </si>
+  <si>
+    <t>115.07%</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>美的集团</t>
   </si>
   <si>
     <t>海尔智家</t>
   </si>
   <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
     <t>科沃斯</t>
   </si>
   <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>石头科技</t>
+  </si>
+  <si>
     <t>万华化学</t>
   </si>
   <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
     <t>韦尔股份</t>
   </si>
   <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
     <t>老板电器</t>
   </si>
   <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>三安光电</t>
   </si>
   <si>
     <t>亿纬锂能</t>
   </si>
   <si>
-    <t>卓胜微</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>天赐材料</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫光国微</t>
-  </si>
-  <si>
-    <t>公牛集团</t>
+    <t>产险:机动车辆保险</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
   </si>
   <si>
     <t>电冰箱</t>
   </si>
   <si>
-    <t>产险:机动车辆保险</t>
-  </si>
-  <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
     <t>服务机器人</t>
   </si>
   <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>智能扫地机</t>
+  </si>
+  <si>
     <t>聚氨酯系列</t>
   </si>
   <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>证券经纪业务</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
     <t>CMOS图像传感器产品</t>
   </si>
   <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
     <t>油烟机</t>
   </si>
   <si>
-    <t>证券经纪业务</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>锂离子电池材料产品</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
   </si>
   <si>
     <t>锂离子电池</t>
   </si>
   <si>
-    <t>射频开关</t>
-  </si>
-  <si>
-    <t>锂离子电池材料产品</t>
-  </si>
-  <si>
-    <t>存储芯片销售</t>
-  </si>
-  <si>
-    <t>化合物半导体产品</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>电连接产品</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>20.10%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>76.18%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>-2.78%</t>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-8.19%</t>
+  </si>
+  <si>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>41.34%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -563,7 +560,7 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
+    <t>家用电器</t>
   </si>
   <si>
     <t>锂电池</t>
@@ -572,7 +569,7 @@
     <t>保险</t>
   </si>
   <si>
-    <t>机械设备</t>
+    <t>半导体芯片</t>
   </si>
   <si>
     <t>证券</t>
@@ -581,43 +578,43 @@
     <t>化工</t>
   </si>
   <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>33.22%</t>
-  </si>
-  <si>
-    <t>13.61%</t>
-  </si>
-  <si>
-    <t>13.59%</t>
-  </si>
-  <si>
-    <t>10.74%</t>
-  </si>
-  <si>
-    <t>8.36%</t>
-  </si>
-  <si>
-    <t>6.69%</t>
-  </si>
-  <si>
-    <t>5.12%</t>
-  </si>
-  <si>
-    <t>3.36%</t>
-  </si>
-  <si>
-    <t>2.81%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>6.06%</t>
+  </si>
+  <si>
+    <t>4.78%</t>
+  </si>
+  <si>
+    <t>4.75%</t>
+  </si>
+  <si>
+    <t>3.32%</t>
+  </si>
+  <si>
+    <t>2.12%</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>1.29%</t>
+  </si>
+  <si>
+    <t>1.18%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
   </si>
 </sst>
 </file>
@@ -981,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,22 +1047,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.02686009883611</v>
+      </c>
+      <c r="C3">
         <v>1.028039681888989</v>
-      </c>
-      <c r="C3">
-        <v>1.07818653347421</v>
       </c>
       <c r="D3">
         <v>1.012875845202129</v>
       </c>
       <c r="E3">
-        <v>1.02686009883611</v>
+        <v>0.9975679270378113</v>
       </c>
       <c r="F3">
-        <v>0.9975679270378113</v>
+        <v>1.07818653347421</v>
       </c>
       <c r="G3">
-        <v>1.026338109797643</v>
+        <v>1.026081477624453</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1079,22 +1076,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.061330056224159</v>
+      </c>
+      <c r="C4">
         <v>1.079855702221858</v>
-      </c>
-      <c r="C4">
-        <v>1.091441744308904</v>
       </c>
       <c r="D4">
         <v>1.0337361530715</v>
       </c>
       <c r="E4">
-        <v>1.061330056224159</v>
+        <v>0.9930837925137755</v>
       </c>
       <c r="F4">
-        <v>0.9930837925137755</v>
+        <v>1.091441744308904</v>
       </c>
       <c r="G4">
-        <v>1.049231781465584</v>
+        <v>1.04908122302516</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1108,22 +1105,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.068998328826082</v>
+      </c>
+      <c r="C5">
         <v>1.063786176928753</v>
-      </c>
-      <c r="C5">
-        <v>1.079195082124676</v>
       </c>
       <c r="D5">
         <v>1.02639907926917</v>
       </c>
       <c r="E5">
-        <v>1.068998328826082</v>
+        <v>1.001634049021471</v>
       </c>
       <c r="F5">
-        <v>1.001634049021471</v>
+        <v>1.079195082124676</v>
       </c>
       <c r="G5">
-        <v>1.044672852542755</v>
+        <v>1.044621868776262</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1137,22 +1134,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.104638764970133</v>
+      </c>
+      <c r="C6">
         <v>1.072886775436583</v>
-      </c>
-      <c r="C6">
-        <v>1.111756795696859</v>
       </c>
       <c r="D6">
         <v>1.041145158969932</v>
       </c>
       <c r="E6">
-        <v>1.104638764970133</v>
+        <v>1.012540376211286</v>
       </c>
       <c r="F6">
-        <v>1.012540376211286</v>
+        <v>1.111756795696859</v>
       </c>
       <c r="G6">
-        <v>1.064301867847697</v>
+        <v>1.064266277694063</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1166,22 +1163,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.101586266493641</v>
+      </c>
+      <c r="C7">
         <v>1.069935229974584</v>
-      </c>
-      <c r="C7">
-        <v>1.098261454231102</v>
       </c>
       <c r="D7">
         <v>1.049201553733276</v>
       </c>
       <c r="E7">
-        <v>1.101586266493641</v>
+        <v>1.00714421432643</v>
       </c>
       <c r="F7">
-        <v>1.00714421432643</v>
+        <v>1.098261454231102</v>
       </c>
       <c r="G7">
-        <v>1.062770478382259</v>
+        <v>1.062787102443572</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1195,22 +1192,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.089209983403007</v>
+      </c>
+      <c r="C8">
         <v>1.087808477494466</v>
-      </c>
-      <c r="C8">
-        <v>1.055998463163961</v>
       </c>
       <c r="D8">
         <v>1.029707955689829</v>
       </c>
       <c r="E8">
-        <v>1.089209983403007</v>
+        <v>0.9839255177655329</v>
       </c>
       <c r="F8">
-        <v>0.9839255177655329</v>
+        <v>1.055998463163961</v>
       </c>
       <c r="G8">
-        <v>1.046318162982385</v>
+        <v>1.04648422058358</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1224,22 +1221,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.110335048647452</v>
+      </c>
+      <c r="C9">
         <v>1.1151922603919</v>
-      </c>
-      <c r="C9">
-        <v>1.083181250600327</v>
       </c>
       <c r="D9">
         <v>1.065242411163861</v>
       </c>
       <c r="E9">
-        <v>1.110335048647452</v>
+        <v>1.044043321299639</v>
       </c>
       <c r="F9">
-        <v>1.044043321299639</v>
+        <v>1.083181250600327</v>
       </c>
       <c r="G9">
-        <v>1.080725923594023</v>
+        <v>1.080861692584258</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1253,22 +1250,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.110259492098048</v>
+      </c>
+      <c r="C10">
         <v>1.136590964991391</v>
-      </c>
-      <c r="C10">
-        <v>1.045961002785516</v>
       </c>
       <c r="D10">
         <v>1.073514602215508</v>
       </c>
       <c r="E10">
-        <v>1.110259492098048</v>
+        <v>1.028956868706061</v>
       </c>
       <c r="F10">
-        <v>1.028956868706061</v>
+        <v>1.045961002785516</v>
       </c>
       <c r="G10">
-        <v>1.07826435278587</v>
+        <v>1.078585845232433</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1282,22 +1279,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.087347257669719</v>
+      </c>
+      <c r="C11">
         <v>1.132819545789948</v>
-      </c>
-      <c r="C11">
-        <v>1.018345980213236</v>
       </c>
       <c r="D11">
         <v>1.051647245000719</v>
       </c>
       <c r="E11">
-        <v>1.087347257669719</v>
+        <v>1.004712141364241</v>
       </c>
       <c r="F11">
-        <v>1.004712141364241</v>
+        <v>1.018345980213236</v>
       </c>
       <c r="G11">
-        <v>1.057931531111382</v>
+        <v>1.058276537498665</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1311,22 +1308,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.091761509106276</v>
+      </c>
+      <c r="C12">
         <v>1.110436992703124</v>
-      </c>
-      <c r="C12">
-        <v>1.040678128902123</v>
       </c>
       <c r="D12">
         <v>1.056394763343404</v>
       </c>
       <c r="E12">
-        <v>1.091761509106276</v>
+        <v>1.01212236367091</v>
       </c>
       <c r="F12">
-        <v>1.01212236367091</v>
+        <v>1.040678128902123</v>
       </c>
       <c r="G12">
-        <v>1.061440681584451</v>
+        <v>1.061696098485472</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1340,22 +1337,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.137076676849913</v>
+      </c>
+      <c r="C13">
         <v>1.176026891858654</v>
-      </c>
-      <c r="C13">
-        <v>1.050859667659207</v>
       </c>
       <c r="D13">
         <v>1.069486404833837</v>
       </c>
       <c r="E13">
-        <v>1.137076676849913</v>
+        <v>1.019950598517956</v>
       </c>
       <c r="F13">
-        <v>1.019950598517956</v>
+        <v>1.050859667659207</v>
       </c>
       <c r="G13">
-        <v>1.087410729148901</v>
+        <v>1.087841814194854</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1369,22 +1366,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.121004392227605</v>
+      </c>
+      <c r="C14">
         <v>1.157251783225383</v>
-      </c>
-      <c r="C14">
-        <v>1.02165978292191</v>
       </c>
       <c r="D14">
         <v>1.051359516616314</v>
       </c>
       <c r="E14">
-        <v>1.121004392227605</v>
+        <v>1.018696560896827</v>
       </c>
       <c r="F14">
-        <v>1.018696560896827</v>
+        <v>1.02165978292191</v>
       </c>
       <c r="G14">
-        <v>1.070414263993955</v>
+        <v>1.070910987040483</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1398,22 +1395,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.139172989380303</v>
+      </c>
+      <c r="C15">
         <v>1.167582192342379</v>
-      </c>
-      <c r="C15">
-        <v>1.069685909134569</v>
       </c>
       <c r="D15">
         <v>1.054308732556467</v>
       </c>
       <c r="E15">
-        <v>1.139172989380303</v>
+        <v>1.010032300969029</v>
       </c>
       <c r="F15">
-        <v>1.010032300969029</v>
+        <v>1.069685909134569</v>
       </c>
       <c r="G15">
-        <v>1.082876331902355</v>
+        <v>1.083223767303584</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1427,22 +1424,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.171715167447518</v>
+      </c>
+      <c r="C16">
         <v>1.168320078707879</v>
-      </c>
-      <c r="C16">
-        <v>1.099029872250505</v>
       </c>
       <c r="D16">
         <v>1.071428571428571</v>
       </c>
       <c r="E16">
-        <v>1.171715167447518</v>
+        <v>1.016264487934638</v>
       </c>
       <c r="F16">
-        <v>1.016264487934638</v>
+        <v>1.099029872250505</v>
       </c>
       <c r="G16">
-        <v>1.10003756337241</v>
+        <v>1.100400989848395</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1456,22 +1453,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.189923116005769</v>
+      </c>
+      <c r="C17">
         <v>1.154054275641551</v>
-      </c>
-      <c r="C17">
-        <v>1.13019882816252</v>
       </c>
       <c r="D17">
         <v>1.06855128758452</v>
       </c>
       <c r="E17">
-        <v>1.189923116005769</v>
+        <v>0.9974539236177086</v>
       </c>
       <c r="F17">
-        <v>0.9974539236177086</v>
+        <v>1.13019882816252</v>
       </c>
       <c r="G17">
-        <v>1.101862164087458</v>
+        <v>1.102160785526674</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1485,22 +1482,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.200397044346235</v>
+      </c>
+      <c r="C18">
         <v>1.139214560957613</v>
-      </c>
-      <c r="C18">
-        <v>1.1354336759197</v>
       </c>
       <c r="D18">
         <v>1.070421522083153</v>
       </c>
       <c r="E18">
-        <v>1.200397044346235</v>
+        <v>1.000646019380582</v>
       </c>
       <c r="F18">
-        <v>1.000646019380582</v>
+        <v>1.1354336759197</v>
       </c>
       <c r="G18">
-        <v>1.103101408071508</v>
+        <v>1.103426224913641</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1514,22 +1511,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.176236507453332</v>
+      </c>
+      <c r="C19">
         <v>1.113634500286956</v>
-      </c>
-      <c r="C19">
-        <v>1.107674574968783</v>
       </c>
       <c r="D19">
         <v>1.042511868795857</v>
       </c>
       <c r="E19">
-        <v>1.176236507453332</v>
+        <v>0.9682690480714422</v>
       </c>
       <c r="F19">
-        <v>0.9682690480714422</v>
+        <v>1.107674574968783</v>
       </c>
       <c r="G19">
-        <v>1.075494876157696</v>
+        <v>1.075837685820119</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1543,22 +1540,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.179505797241663</v>
+      </c>
+      <c r="C20">
         <v>1.107731409362958</v>
-      </c>
-      <c r="C20">
-        <v>1.120785707424839</v>
       </c>
       <c r="D20">
         <v>1.043303121852971</v>
       </c>
       <c r="E20">
-        <v>1.179505797241663</v>
+        <v>0.9697130913927419</v>
       </c>
       <c r="F20">
-        <v>0.9697130913927419</v>
+        <v>1.120785707424839</v>
       </c>
       <c r="G20">
-        <v>1.077759056690083</v>
+        <v>1.078052657139167</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1572,22 +1569,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.129671695457043</v>
+      </c>
+      <c r="C21">
         <v>1.06075264409281</v>
-      </c>
-      <c r="C21">
-        <v>1.073191816348093</v>
       </c>
       <c r="D21">
         <v>1.008703783628255</v>
       </c>
       <c r="E21">
-        <v>1.129671695457043</v>
+        <v>0.955386661599848</v>
       </c>
       <c r="F21">
-        <v>0.955386661599848</v>
+        <v>1.073191816348093</v>
       </c>
       <c r="G21">
-        <v>1.039677435786665</v>
+        <v>1.039959835182209</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1601,22 +1598,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.126820881609365</v>
+      </c>
+      <c r="C22">
         <v>1.03976387636304</v>
-      </c>
-      <c r="C22">
-        <v>1.052300451445586</v>
       </c>
       <c r="D22">
         <v>1.001654438210329</v>
       </c>
       <c r="E22">
-        <v>1.126820881609365</v>
+        <v>0.9400722021660651</v>
       </c>
       <c r="F22">
-        <v>0.9400722021660651</v>
+        <v>1.052300451445586</v>
       </c>
       <c r="G22">
-        <v>1.027234259159821</v>
+        <v>1.02760686131064</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1630,22 +1627,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.181885967353556</v>
+      </c>
+      <c r="C23">
         <v>1.045502992539149</v>
-      </c>
-      <c r="C23">
-        <v>1.048554413600999</v>
       </c>
       <c r="D23">
         <v>1.010789814415192</v>
       </c>
       <c r="E23">
-        <v>1.181885967353556</v>
+        <v>0.9410982329469885</v>
       </c>
       <c r="F23">
-        <v>0.9410982329469885</v>
+        <v>1.048554413600999</v>
       </c>
       <c r="G23">
-        <v>1.039842790850428</v>
+        <v>1.040509448619191</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1659,22 +1656,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.211941835244988</v>
+      </c>
+      <c r="C24">
         <v>1.054603591046979</v>
-      </c>
-      <c r="C24">
-        <v>1.10436077226011</v>
       </c>
       <c r="D24">
         <v>1.038052078837577</v>
       </c>
       <c r="E24">
-        <v>1.211941835244988</v>
+        <v>0.9400722021660651</v>
       </c>
       <c r="F24">
-        <v>0.9400722021660651</v>
+        <v>1.10436077226011</v>
       </c>
       <c r="G24">
-        <v>1.06466344395143</v>
+        <v>1.065201349266354</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1688,22 +1685,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.205280296984896</v>
+      </c>
+      <c r="C25">
         <v>1.015741575797327</v>
-      </c>
-      <c r="C25">
-        <v>1.104120641629046</v>
       </c>
       <c r="D25">
         <v>1.028341245863904</v>
       </c>
       <c r="E25">
-        <v>1.205280296984896</v>
+        <v>0.9262397871936158</v>
       </c>
       <c r="F25">
-        <v>0.9262397871936158</v>
+        <v>1.104120641629046</v>
       </c>
       <c r="G25">
-        <v>1.051430001987026</v>
+        <v>1.051935800263806</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1717,22 +1714,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.21061140609628</v>
+      </c>
+      <c r="C26">
         <v>1.014101828318439</v>
-      </c>
-      <c r="C26">
-        <v>1.0789069253674</v>
       </c>
       <c r="D26">
         <v>1.022874406560207</v>
       </c>
       <c r="E26">
-        <v>1.21061140609628</v>
+        <v>0.9252897586927608</v>
       </c>
       <c r="F26">
-        <v>0.9252897586927608</v>
+        <v>1.0789069253674</v>
       </c>
       <c r="G26">
-        <v>1.045783734481653</v>
+        <v>1.046442256885297</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1746,22 +1743,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.151182085222883</v>
+      </c>
+      <c r="C27">
         <v>0.9888497171435598</v>
-      </c>
-      <c r="C27">
-        <v>1.040774181154548</v>
       </c>
       <c r="D27">
         <v>1.025751690404258</v>
       </c>
       <c r="E27">
-        <v>1.151182085222883</v>
+        <v>0.9236177085312559</v>
       </c>
       <c r="F27">
-        <v>0.9236177085312559</v>
+        <v>1.040774181154548</v>
       </c>
       <c r="G27">
-        <v>1.025876086513517</v>
+        <v>1.026428126033858</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1775,22 +1772,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.210158552619677</v>
+      </c>
+      <c r="C28">
         <v>1.017709272771993</v>
-      </c>
-      <c r="C28">
-        <v>1.066420132552108</v>
       </c>
       <c r="D28">
         <v>1.02639907926917</v>
       </c>
       <c r="E28">
-        <v>1.210158552619677</v>
+        <v>0.9192855785673569</v>
       </c>
       <c r="F28">
-        <v>0.9192855785673569</v>
+        <v>1.066420132552108</v>
       </c>
       <c r="G28">
-        <v>1.044371976709784</v>
+        <v>1.045090668810122</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1804,22 +1801,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.265070188703061</v>
+      </c>
+      <c r="C29">
         <v>1.032057063212265</v>
-      </c>
-      <c r="C29">
-        <v>1.100374603784459</v>
       </c>
       <c r="D29">
         <v>1.045245288447705</v>
       </c>
       <c r="E29">
-        <v>1.265070188703061</v>
+        <v>0.9342580277408322</v>
       </c>
       <c r="F29">
-        <v>0.9342580277408322</v>
+        <v>1.100374603784459</v>
       </c>
       <c r="G29">
-        <v>1.070333484290428</v>
+        <v>1.071156962215021</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1833,22 +1830,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.293885689187007</v>
+      </c>
+      <c r="C30">
         <v>1.040091825858818</v>
-      </c>
-      <c r="C30">
-        <v>1.116319277687062</v>
       </c>
       <c r="D30">
         <v>1.05732988059272</v>
       </c>
       <c r="E30">
-        <v>1.293885689187007</v>
+        <v>0.9400342010260309</v>
       </c>
       <c r="F30">
-        <v>0.9400342010260309</v>
+        <v>1.116319277687062</v>
       </c>
       <c r="G30">
-        <v>1.084105530083548</v>
+        <v>1.084993362141048</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1862,22 +1859,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.3124880540376</v>
+      </c>
+      <c r="C31">
         <v>1.065507911781586</v>
-      </c>
-      <c r="C31">
-        <v>1.101239074056287</v>
       </c>
       <c r="D31">
         <v>1.035462523377931</v>
       </c>
       <c r="E31">
-        <v>1.3124880540376</v>
+        <v>0.9569067072012161</v>
       </c>
       <c r="F31">
-        <v>0.9569067072012161</v>
+        <v>1.101239074056287</v>
       </c>
       <c r="G31">
-        <v>1.08449975591156</v>
+        <v>1.085556000811467</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1891,22 +1888,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.281372034758234</v>
+      </c>
+      <c r="C32">
         <v>1.060342707223088</v>
-      </c>
-      <c r="C32">
-        <v>1.07674574968783</v>
       </c>
       <c r="D32">
         <v>1.032441375341677</v>
       </c>
       <c r="E32">
-        <v>1.281372034758234</v>
+        <v>0.975793273798214</v>
       </c>
       <c r="F32">
-        <v>0.975793273798214</v>
+        <v>1.07674574968783</v>
       </c>
       <c r="G32">
-        <v>1.076442967449424</v>
+        <v>1.077466098874776</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1920,22 +1917,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.276114446379858</v>
+      </c>
+      <c r="C33">
         <v>1.033122899073543</v>
-      </c>
-      <c r="C33">
-        <v>1.056910959562002</v>
       </c>
       <c r="D33">
         <v>0.9864767659329592</v>
       </c>
       <c r="E33">
-        <v>1.276114446379858</v>
+        <v>0.9541326239787195</v>
       </c>
       <c r="F33">
-        <v>0.9541326239787195</v>
+        <v>1.056910959562002</v>
       </c>
       <c r="G33">
-        <v>1.048833855335084</v>
+        <v>1.049929872769174</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1949,22 +1946,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.245324018918102</v>
+      </c>
+      <c r="C34">
         <v>1.021480691973436</v>
-      </c>
-      <c r="C34">
-        <v>1.033618288348862</v>
       </c>
       <c r="D34">
         <v>0.9871241547978707</v>
       </c>
       <c r="E34">
-        <v>1.245324018918102</v>
+        <v>0.9592627778833366</v>
       </c>
       <c r="F34">
-        <v>0.9592627778833366</v>
+        <v>1.033618288348862</v>
       </c>
       <c r="G34">
-        <v>1.038874619210325</v>
+        <v>1.039933147863171</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1978,22 +1975,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.194330751039041</v>
+      </c>
+      <c r="C35">
         <v>1.029597441993933</v>
-      </c>
-      <c r="C35">
-        <v>0.9825665161848046</v>
       </c>
       <c r="D35">
         <v>0.991296216371745</v>
       </c>
       <c r="E35">
-        <v>1.194330751039041</v>
+        <v>0.9512445373361201</v>
       </c>
       <c r="F35">
-        <v>0.9512445373361201</v>
+        <v>0.9825665161848046</v>
       </c>
       <c r="G35">
-        <v>1.023215546874963</v>
+        <v>1.024274368049234</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -2007,22 +2004,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.194601190739756</v>
+      </c>
+      <c r="C36">
         <v>1.02098876772977</v>
-      </c>
-      <c r="C36">
-        <v>0.9625396215541255</v>
       </c>
       <c r="D36">
         <v>0.9933822471586822</v>
       </c>
       <c r="E36">
-        <v>1.194601190739756</v>
+        <v>0.9687250617518526</v>
       </c>
       <c r="F36">
-        <v>0.9687250617518526</v>
+        <v>0.9625396215541255</v>
       </c>
       <c r="G36">
-        <v>1.021964799401743</v>
+        <v>1.023125107247671</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2036,22 +2033,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.159340827636171</v>
+      </c>
+      <c r="C37">
         <v>1.005985078297942</v>
-      </c>
-      <c r="C37">
-        <v>0.9374699836711171</v>
       </c>
       <c r="D37">
         <v>0.974104445403539</v>
       </c>
       <c r="E37">
-        <v>1.159340827636171</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F37">
-        <v>0.9473684210526315</v>
+        <v>0.9374699836711171</v>
       </c>
       <c r="G37">
-        <v>0.9994488535515604</v>
+        <v>1.000558207771385</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2065,22 +2062,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.190366715771483</v>
+      </c>
+      <c r="C38">
         <v>1.043125358694761</v>
-      </c>
-      <c r="C38">
-        <v>0.980981654019787</v>
       </c>
       <c r="D38">
         <v>0.9908646237951373</v>
       </c>
       <c r="E38">
-        <v>1.190366715771483</v>
+        <v>0.9411742352270569</v>
       </c>
       <c r="F38">
-        <v>0.9411742352270569</v>
+        <v>0.980981654019787</v>
       </c>
       <c r="G38">
-        <v>1.022787774928628</v>
+        <v>1.023834700237386</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2094,22 +2091,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.162769466326001</v>
+      </c>
+      <c r="C39">
         <v>1.054111666803312</v>
-      </c>
-      <c r="C39">
-        <v>0.9807415233887236</v>
       </c>
       <c r="D39">
         <v>0.9925190620054667</v>
       </c>
       <c r="E39">
-        <v>1.162769466326001</v>
+        <v>0.9288238647159415</v>
       </c>
       <c r="F39">
-        <v>0.9288238647159415</v>
+        <v>0.9807415233887236</v>
       </c>
       <c r="G39">
-        <v>1.018569232416371</v>
+        <v>1.019479372131057</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2123,22 +2120,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.170250328148155</v>
+      </c>
+      <c r="C40">
         <v>1.05517750266459</v>
-      </c>
-      <c r="C40">
-        <v>0.9912112189030833</v>
       </c>
       <c r="D40">
         <v>0.9920874694288591</v>
       </c>
       <c r="E40">
-        <v>1.170250328148155</v>
+        <v>0.9545126353790614</v>
       </c>
       <c r="F40">
-        <v>0.9545126353790614</v>
+        <v>0.9912112189030833</v>
       </c>
       <c r="G40">
-        <v>1.025860836560019</v>
+        <v>1.026756032106244</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2152,22 +2149,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.115512939440801</v>
+      </c>
+      <c r="C41">
         <v>1.017791260145938</v>
-      </c>
-      <c r="C41">
-        <v>0.9335798674478917</v>
       </c>
       <c r="D41">
         <v>0.9651848654869803</v>
       </c>
       <c r="E41">
-        <v>1.115512939440801</v>
+        <v>0.9407562226866806</v>
       </c>
       <c r="F41">
-        <v>0.9407562226866806</v>
+        <v>0.9335798674478917</v>
       </c>
       <c r="G41">
-        <v>0.989528509052689</v>
+        <v>0.9904381744126536</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2181,22 +2178,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.109189416105186</v>
+      </c>
+      <c r="C42">
         <v>1.008936623759941</v>
-      </c>
-      <c r="C42">
-        <v>0.9333397368168285</v>
       </c>
       <c r="D42">
         <v>0.9661919148323981</v>
       </c>
       <c r="E42">
-        <v>1.109189416105186</v>
+        <v>0.9410982329469885</v>
       </c>
       <c r="F42">
-        <v>0.9410982329469885</v>
+        <v>0.9333397368168285</v>
       </c>
       <c r="G42">
-        <v>0.987327775286351</v>
+        <v>0.9882070236827928</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2210,22 +2207,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>1.07910777662893</v>
+      </c>
+      <c r="C43">
         <v>0.9645814544560138</v>
-      </c>
-      <c r="C43">
-        <v>0.8843050619537028</v>
       </c>
       <c r="D43">
         <v>0.9448280822903178</v>
       </c>
       <c r="E43">
-        <v>1.07910777662893</v>
+        <v>0.9316739502185066</v>
       </c>
       <c r="F43">
-        <v>0.9316739502185066</v>
+        <v>0.8843050619537028</v>
       </c>
       <c r="G43">
-        <v>0.9578829598752837</v>
+        <v>0.9588569734486598</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2239,22 +2236,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>1.035259831015209</v>
+      </c>
+      <c r="C44">
         <v>0.9153070427154218</v>
-      </c>
-      <c r="C44">
-        <v>0.8690807799442898</v>
       </c>
       <c r="D44">
         <v>0.9348295209322399</v>
       </c>
       <c r="E44">
-        <v>1.035259831015209</v>
+        <v>0.9146114383431503</v>
       </c>
       <c r="F44">
-        <v>0.9146114383431503</v>
+        <v>0.8690807799442898</v>
       </c>
       <c r="G44">
-        <v>0.9335684312039196</v>
+        <v>0.9343993264592741</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2268,22 +2265,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>1.047741675812803</v>
+      </c>
+      <c r="C45">
         <v>0.9161269164548659</v>
-      </c>
-      <c r="C45">
-        <v>0.890500432235136</v>
       </c>
       <c r="D45">
         <v>0.9394331750827218</v>
       </c>
       <c r="E45">
-        <v>1.047741675812803</v>
+        <v>0.9070492114763442</v>
       </c>
       <c r="F45">
-        <v>0.9070492114763442</v>
+        <v>0.890500432235136</v>
       </c>
       <c r="G45">
-        <v>0.9396800934573079</v>
+        <v>0.9404662996751962</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2297,22 +2294,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>1.075413440765215</v>
+      </c>
+      <c r="C46">
         <v>0.9453144215790769</v>
-      </c>
-      <c r="C46">
-        <v>0.9168187493996736</v>
       </c>
       <c r="D46">
         <v>0.9529564091497625</v>
       </c>
       <c r="E46">
-        <v>1.075413440765215</v>
+        <v>0.9280638419152575</v>
       </c>
       <c r="F46">
-        <v>0.9280638419152575</v>
+        <v>0.9168187493996736</v>
       </c>
       <c r="G46">
-        <v>0.9616120057280874</v>
+        <v>0.962404979184915</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2326,22 +2323,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.09597699083295</v>
+      </c>
+      <c r="C47">
         <v>0.9303107321472494</v>
-      </c>
-      <c r="C47">
-        <v>0.9207568917491116</v>
       </c>
       <c r="D47">
         <v>0.9540353905912818</v>
       </c>
       <c r="E47">
-        <v>1.09597699083295</v>
+        <v>0.9239217176515295</v>
       </c>
       <c r="F47">
-        <v>0.9239217176515295</v>
+        <v>0.9207568917491116</v>
       </c>
       <c r="G47">
-        <v>0.9627964618574435</v>
+        <v>0.9636725623528628</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2355,22 +2352,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>1.065170022362981</v>
+      </c>
+      <c r="C48">
         <v>0.8900549315405427</v>
-      </c>
-      <c r="C48">
-        <v>0.8923734511574297</v>
       </c>
       <c r="D48">
         <v>0.9337505394907207</v>
       </c>
       <c r="E48">
-        <v>1.065170022362981</v>
+        <v>0.9116473494204826</v>
       </c>
       <c r="F48">
-        <v>0.9116473494204826</v>
+        <v>0.8923734511574297</v>
       </c>
       <c r="G48">
-        <v>0.9373253694348647</v>
+        <v>0.9381893522908924</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2384,22 +2381,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>1.076751110942694</v>
+      </c>
+      <c r="C49">
         <v>0.8844797901123227</v>
-      </c>
-      <c r="C49">
-        <v>0.894870809720488</v>
       </c>
       <c r="D49">
         <v>0.9460509279240396</v>
       </c>
       <c r="E49">
-        <v>1.076751110942694</v>
+        <v>0.9165874976249287</v>
       </c>
       <c r="F49">
-        <v>0.9165874976249287</v>
+        <v>0.894870809720488</v>
       </c>
       <c r="G49">
-        <v>0.9435872786001687</v>
+        <v>0.9444966801062796</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2413,22 +2410,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>1.089631327994035</v>
+      </c>
+      <c r="C50">
         <v>0.9112076740182011</v>
-      </c>
-      <c r="C50">
-        <v>0.9174430890404381</v>
       </c>
       <c r="D50">
         <v>0.9653287296791828</v>
       </c>
       <c r="E50">
-        <v>1.089631327994035</v>
+        <v>0.9044271328139843</v>
       </c>
       <c r="F50">
-        <v>0.9044271328139843</v>
+        <v>0.9174430890404381</v>
       </c>
       <c r="G50">
-        <v>0.9584487565474223</v>
+        <v>0.9593096977421902</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2442,22 +2439,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>1.112576575035959</v>
+      </c>
+      <c r="C51">
         <v>0.9121095351315898</v>
-      </c>
-      <c r="C51">
-        <v>0.9207568917491116</v>
       </c>
       <c r="D51">
         <v>0.9708675010789813</v>
       </c>
       <c r="E51">
-        <v>1.112576575035959</v>
+        <v>0.900019000570017</v>
       </c>
       <c r="F51">
-        <v>0.900019000570017</v>
+        <v>0.9207568917491116</v>
       </c>
       <c r="G51">
-        <v>0.9640518379007692</v>
+        <v>0.9650109363172034</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2471,22 +2468,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>1.070850574731789</v>
+      </c>
+      <c r="C52">
         <v>0.9044847093547593</v>
-      </c>
-      <c r="C52">
-        <v>0.8901162232254347</v>
       </c>
       <c r="D52">
         <v>0.9544669831678895</v>
       </c>
       <c r="E52">
-        <v>1.070850574731789</v>
+        <v>0.8851985559566787</v>
       </c>
       <c r="F52">
-        <v>0.8851985559566787</v>
+        <v>0.8901162232254347</v>
       </c>
       <c r="G52">
-        <v>0.9428043695476338</v>
+        <v>0.9437080413051657</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2500,22 +2497,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>1.060214128093845</v>
+      </c>
+      <c r="C53">
         <v>0.9064524063294251</v>
-      </c>
-      <c r="C53">
-        <v>0.9013543367591971</v>
       </c>
       <c r="D53">
         <v>0.9650410012947775</v>
       </c>
       <c r="E53">
-        <v>1.060214128093845</v>
+        <v>0.8937868136044081</v>
       </c>
       <c r="F53">
-        <v>0.8937868136044081</v>
+        <v>0.9013543367591971</v>
       </c>
       <c r="G53">
-        <v>0.9482008321325542</v>
+        <v>0.9489951310892274</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2529,22 +2526,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>1.020175449433074</v>
+      </c>
+      <c r="C54">
         <v>0.9062884315815364</v>
-      </c>
-      <c r="C54">
-        <v>0.8681682835462493</v>
       </c>
       <c r="D54">
         <v>0.956624946050928</v>
       </c>
       <c r="E54">
-        <v>1.020175449433074</v>
+        <v>0.8977009310279308</v>
       </c>
       <c r="F54">
-        <v>0.8977009310279308</v>
+        <v>0.8681682835462493</v>
       </c>
       <c r="G54">
-        <v>0.9337934765445955</v>
+        <v>0.9345535123740297</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2558,22 +2555,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9741431653641376</v>
+      </c>
+      <c r="C55">
         <v>0.8854636385996557</v>
-      </c>
-      <c r="C55">
-        <v>0.8384881375468255</v>
       </c>
       <c r="D55">
         <v>0.9555459646094087</v>
       </c>
       <c r="E55">
-        <v>0.9741431653641376</v>
+        <v>0.8939768193045792</v>
       </c>
       <c r="F55">
-        <v>0.8939768193045792</v>
+        <v>0.8384881375468255</v>
       </c>
       <c r="G55">
-        <v>0.916641767736345</v>
+        <v>0.9173200428754315</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2587,22 +2584,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9976130746791589</v>
+      </c>
+      <c r="C56">
         <v>0.8933344264983192</v>
-      </c>
-      <c r="C56">
-        <v>0.8523676880222841</v>
       </c>
       <c r="D56">
         <v>0.9510861746511293</v>
       </c>
       <c r="E56">
-        <v>0.9976130746791589</v>
+        <v>0.8909367281018431</v>
       </c>
       <c r="F56">
-        <v>0.8909367281018431</v>
+        <v>0.8523676880222841</v>
       </c>
       <c r="G56">
-        <v>0.9222385145622407</v>
+        <v>0.922964741495525</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2616,22 +2613,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>1.017505938915977</v>
+      </c>
+      <c r="C57">
         <v>0.9111256866442567</v>
-      </c>
-      <c r="C57">
-        <v>0.8949188358467006</v>
       </c>
       <c r="D57">
         <v>0.972809667673716</v>
       </c>
       <c r="E57">
-        <v>1.017505938915977</v>
+        <v>0.8989929697890937</v>
       </c>
       <c r="F57">
-        <v>0.8989929697890937</v>
+        <v>0.8949188358467006</v>
       </c>
       <c r="G57">
-        <v>0.9442770790921257</v>
+        <v>0.9448900146074721</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2645,22 +2642,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>1.029999165777963</v>
+      </c>
+      <c r="C58">
         <v>0.9156349922111995</v>
-      </c>
-      <c r="C58">
-        <v>0.8840169051964269</v>
       </c>
       <c r="D58">
         <v>0.9838872104733131</v>
       </c>
       <c r="E58">
-        <v>1.029999165777963</v>
+        <v>0.8953068592057761</v>
       </c>
       <c r="F58">
-        <v>0.8953068592057761</v>
+        <v>0.8840169051964269</v>
       </c>
       <c r="G58">
-        <v>0.9482990961378068</v>
+        <v>0.9490290074407146</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2674,22 +2671,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>1.045284792437646</v>
+      </c>
+      <c r="C59">
         <v>0.9175207018119209</v>
-      </c>
-      <c r="C59">
-        <v>0.8964076457592931</v>
       </c>
       <c r="D59">
         <v>0.984894259818731</v>
       </c>
       <c r="E59">
-        <v>1.045284792437646</v>
+        <v>0.8951168535056052</v>
       </c>
       <c r="F59">
-        <v>0.8951168535056052</v>
+        <v>0.8964076457592931</v>
       </c>
       <c r="G59">
-        <v>0.953549196407924</v>
+        <v>0.9542935821413158</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2703,22 +2700,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>1.023160511491466</v>
+      </c>
+      <c r="C60">
         <v>0.9153070427154218</v>
-      </c>
-      <c r="C60">
-        <v>0.883872826817789</v>
       </c>
       <c r="D60">
         <v>0.9939577039274923</v>
       </c>
       <c r="E60">
-        <v>1.023160511491466</v>
+        <v>0.8835265057951739</v>
       </c>
       <c r="F60">
-        <v>0.8835265057951739</v>
+        <v>0.883872826817789</v>
       </c>
       <c r="G60">
-        <v>0.948469977969014</v>
+        <v>0.9491664163923823</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2732,22 +2729,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>1.041828415749427</v>
+      </c>
+      <c r="C61">
         <v>0.9526112978601294</v>
-      </c>
-      <c r="C61">
-        <v>0.9008260493708578</v>
       </c>
       <c r="D61">
         <v>1.003812401093368</v>
       </c>
       <c r="E61">
-        <v>1.041828415749427</v>
+        <v>0.8909367281018431</v>
       </c>
       <c r="F61">
-        <v>0.8909367281018431</v>
+        <v>0.9008260493708578</v>
       </c>
       <c r="G61">
-        <v>0.9652486901255388</v>
+        <v>0.9659537019574316</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2761,22 +2758,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.048781214559733</v>
+      </c>
+      <c r="C62">
         <v>1.001721734852833</v>
-      </c>
-      <c r="C62">
-        <v>0.913937181826914</v>
       </c>
       <c r="D62">
         <v>1.011437203280103</v>
       </c>
       <c r="E62">
-        <v>1.048781214559733</v>
+        <v>0.8902907087212617</v>
       </c>
       <c r="F62">
-        <v>0.8902907087212617</v>
+        <v>0.913937181826914</v>
       </c>
       <c r="G62">
-        <v>0.9793831602593552</v>
+        <v>0.9800573804230194</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2790,22 +2787,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.043656648275379</v>
+      </c>
+      <c r="C63">
         <v>0.9954906944330573</v>
-      </c>
-      <c r="C63">
-        <v>0.9183075593122659</v>
       </c>
       <c r="D63">
         <v>1.004675586246583</v>
       </c>
       <c r="E63">
-        <v>1.043656648275379</v>
+        <v>0.8898346950408513</v>
       </c>
       <c r="F63">
-        <v>0.8898346950408513</v>
+        <v>0.9183075593122659</v>
       </c>
       <c r="G63">
-        <v>0.9759147182452556</v>
+        <v>0.976541463690071</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2819,22 +2816,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>1.04392928573243</v>
+      </c>
+      <c r="C64">
         <v>0.995244732311224</v>
-      </c>
-      <c r="C64">
-        <v>0.911391797137643</v>
       </c>
       <c r="D64">
         <v>1.001007049345418</v>
       </c>
       <c r="E64">
-        <v>1.04392928573243</v>
+        <v>0.8830704921147634</v>
       </c>
       <c r="F64">
-        <v>0.8830704921147634</v>
+        <v>0.911391797137643</v>
       </c>
       <c r="G64">
-        <v>0.9724154996350821</v>
+        <v>0.973078187078056</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2848,22 +2845,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>1.049096835503861</v>
+      </c>
+      <c r="C65">
         <v>0.9926211363450029</v>
-      </c>
-      <c r="C65">
-        <v>0.9065411583901642</v>
       </c>
       <c r="D65">
         <v>1.004459789958279</v>
       </c>
       <c r="E65">
-        <v>1.049096835503861</v>
+        <v>0.8854645639369181</v>
       </c>
       <c r="F65">
-        <v>0.8854645639369181</v>
+        <v>0.9065411583901642</v>
       </c>
       <c r="G65">
-        <v>0.9735319516989391</v>
+        <v>0.9742447300845076</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2877,22 +2874,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>1.028702859688156</v>
+      </c>
+      <c r="C66">
         <v>0.9840944494547839</v>
-      </c>
-      <c r="C66">
-        <v>0.8905964844875613</v>
       </c>
       <c r="D66">
         <v>0.9979139692130627</v>
       </c>
       <c r="E66">
-        <v>1.028702859688156</v>
+        <v>0.8733802014060421</v>
       </c>
       <c r="F66">
-        <v>0.8733802014060421</v>
+        <v>0.8905964844875613</v>
       </c>
       <c r="G66">
-        <v>0.9618527736910522</v>
+        <v>0.9625433055670551</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2906,22 +2903,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9884542143273263</v>
+      </c>
+      <c r="C67">
         <v>0.9668771009264573</v>
-      </c>
-      <c r="C67">
-        <v>0.8604841033522237</v>
       </c>
       <c r="D67">
         <v>0.9800028772838441</v>
       </c>
       <c r="E67">
-        <v>0.9884542143273263</v>
+        <v>0.8619038571157135</v>
       </c>
       <c r="F67">
-        <v>0.8619038571157135</v>
+        <v>0.8604841033522237</v>
       </c>
       <c r="G67">
-        <v>0.939361436019146</v>
+        <v>0.9400012865740215</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2935,22 +2932,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9941718740767979</v>
+      </c>
+      <c r="C68">
         <v>0.9604000983848487</v>
-      </c>
-      <c r="C68">
-        <v>0.8655748727307656</v>
       </c>
       <c r="D68">
         <v>0.9721622788088043</v>
       </c>
       <c r="E68">
-        <v>0.9941718740767979</v>
+        <v>0.8583697510925328</v>
       </c>
       <c r="F68">
-        <v>0.8583697510925328</v>
+        <v>0.8655748727307656</v>
       </c>
       <c r="G68">
-        <v>0.9368986652494995</v>
+        <v>0.9375416502562297</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2964,22 +2961,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>1.00758346234163</v>
+      </c>
+      <c r="C69">
         <v>0.9643354923341805</v>
-      </c>
-      <c r="C69">
-        <v>0.9065411583901642</v>
       </c>
       <c r="D69">
         <v>0.9824485685512875</v>
       </c>
       <c r="E69">
-        <v>1.00758346234163</v>
+        <v>0.8668820064601939</v>
       </c>
       <c r="F69">
-        <v>0.8668820064601939</v>
+        <v>0.9065411583901642</v>
       </c>
       <c r="G69">
-        <v>0.9515438605973646</v>
+        <v>0.9520490721171219</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2993,22 +2990,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>1.008155989434298</v>
+      </c>
+      <c r="C70">
         <v>0.9583504140362384</v>
-      </c>
-      <c r="C70">
-        <v>0.9049082700989339</v>
       </c>
       <c r="D70">
         <v>0.9774133218241979</v>
       </c>
       <c r="E70">
-        <v>1.008155989434298</v>
+        <v>0.8567357020710622</v>
       </c>
       <c r="F70">
-        <v>0.8567357020710622</v>
+        <v>0.9049082700989339</v>
       </c>
       <c r="G70">
-        <v>0.9470075016033491</v>
+        <v>0.9475237402000259</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3022,22 +3019,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>1.00600246583634</v>
+      </c>
+      <c r="C71">
         <v>0.9530212347298517</v>
-      </c>
-      <c r="C71">
-        <v>0.8990010565747767</v>
       </c>
       <c r="D71">
         <v>0.9823047043590849</v>
       </c>
       <c r="E71">
-        <v>1.00600246583634</v>
+        <v>0.8614098422952688</v>
       </c>
       <c r="F71">
-        <v>0.8614098422952688</v>
+        <v>0.8990010565747767</v>
       </c>
       <c r="G71">
-        <v>0.9471273728020005</v>
+        <v>0.9476623798483084</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3051,22 +3048,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.037399867329547</v>
+      </c>
+      <c r="C72">
         <v>0.9767975731737313</v>
-      </c>
-      <c r="C72">
-        <v>0.9587455575833254</v>
       </c>
       <c r="D72">
         <v>0.9971946482520501</v>
       </c>
       <c r="E72">
-        <v>1.037399867329547</v>
+        <v>0.8762682880486414</v>
       </c>
       <c r="F72">
-        <v>0.8762682880486414</v>
+        <v>0.9587455575833254</v>
       </c>
       <c r="G72">
-        <v>0.9738718117892773</v>
+        <v>0.9742650833380084</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3080,22 +3077,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.045566012711545</v>
+      </c>
+      <c r="C73">
         <v>0.9663031893088465</v>
-      </c>
-      <c r="C73">
-        <v>0.9505330900009606</v>
       </c>
       <c r="D73">
         <v>0.9986332901740756</v>
       </c>
       <c r="E73">
-        <v>1.045566012711545</v>
+        <v>0.8699600988029641</v>
       </c>
       <c r="F73">
-        <v>0.8699600988029641</v>
+        <v>0.9505330900009606</v>
       </c>
       <c r="G73">
-        <v>0.9714729616400063</v>
+        <v>0.9719481262535592</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3109,22 +3106,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.044965215532113</v>
+      </c>
+      <c r="C74">
         <v>0.9699106337624006</v>
-      </c>
-      <c r="C74">
-        <v>0.9491403323407934</v>
       </c>
       <c r="D74">
         <v>0.9987771543662782</v>
       </c>
       <c r="E74">
-        <v>1.044965215532113</v>
+        <v>0.8667680030400912</v>
       </c>
       <c r="F74">
-        <v>0.8667680030400912</v>
+        <v>0.9491403323407934</v>
       </c>
       <c r="G74">
-        <v>0.9712711062428285</v>
+        <v>0.9717502306587852</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3138,22 +3135,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.04118637015371</v>
+      </c>
+      <c r="C75">
         <v>0.9802410428793966</v>
-      </c>
-      <c r="C75">
-        <v>0.9515416386514265</v>
       </c>
       <c r="D75">
         <v>0.9953244137534166</v>
       </c>
       <c r="E75">
-        <v>1.04118637015371</v>
+        <v>0.8694660839825195</v>
       </c>
       <c r="F75">
-        <v>0.8694660839825195</v>
+        <v>0.9515416386514265</v>
       </c>
       <c r="G75">
-        <v>0.9721177673313453</v>
+        <v>0.9725659909888568</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3167,22 +3164,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.053591941239306</v>
+      </c>
+      <c r="C76">
         <v>0.9842584242026727</v>
-      </c>
-      <c r="C76">
-        <v>0.9658053981365864</v>
       </c>
       <c r="D76">
         <v>1.004459789958279</v>
       </c>
       <c r="E76">
-        <v>1.053591941239306</v>
+        <v>0.8707581227436823</v>
       </c>
       <c r="F76">
-        <v>0.8707581227436823</v>
+        <v>0.9658053981365864</v>
       </c>
       <c r="G76">
-        <v>0.9805003410410993</v>
+        <v>0.9809392737566129</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3196,22 +3193,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.058537054935256</v>
+      </c>
+      <c r="C77">
         <v>0.9868820201688939</v>
-      </c>
-      <c r="C77">
-        <v>0.9528863701853809</v>
       </c>
       <c r="D77">
         <v>0.9968349877715436</v>
       </c>
       <c r="E77">
-        <v>1.058537054935256</v>
+        <v>0.8542276268288049</v>
       </c>
       <c r="F77">
-        <v>0.8542276268288049</v>
+        <v>0.9528863701853809</v>
       </c>
       <c r="G77">
-        <v>0.9743223448159062</v>
+        <v>0.9748505982396557</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3225,22 +3222,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.052217302486828</v>
+      </c>
+      <c r="C78">
         <v>0.9753218004427318</v>
-      </c>
-      <c r="C78">
-        <v>0.9460186341369706</v>
       </c>
       <c r="D78">
         <v>1.005107178823191</v>
       </c>
       <c r="E78">
-        <v>1.052217302486828</v>
+        <v>0.8520235607068213</v>
       </c>
       <c r="F78">
-        <v>0.8520235607068213</v>
+        <v>0.9460186341369706</v>
       </c>
       <c r="G78">
-        <v>0.9725129853171547</v>
+        <v>0.9730439786589038</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3254,22 +3251,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.062599341478172</v>
+      </c>
+      <c r="C79">
         <v>0.995244732311224</v>
-      </c>
-      <c r="C79">
-        <v>0.9720487945442321</v>
       </c>
       <c r="D79">
         <v>1.024384980578334</v>
       </c>
       <c r="E79">
-        <v>1.062599341478172</v>
+        <v>0.8538476154284629</v>
       </c>
       <c r="F79">
-        <v>0.8538476154284629</v>
+        <v>0.9720487945442321</v>
       </c>
       <c r="G79">
-        <v>0.9887006910458725</v>
+        <v>0.9891534437805423</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3283,22 +3280,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.05600165382321</v>
+      </c>
+      <c r="C80">
         <v>1.00278757071411</v>
-      </c>
-      <c r="C80">
-        <v>0.9715685332821056</v>
       </c>
       <c r="D80">
         <v>1.040929362681629</v>
       </c>
       <c r="E80">
-        <v>1.05600165382321</v>
+        <v>0.8710621318639559</v>
       </c>
       <c r="F80">
-        <v>0.8710621318639559</v>
+        <v>0.9715685332821056</v>
       </c>
       <c r="G80">
-        <v>0.9971127520026765</v>
+        <v>0.997534917605382</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3312,22 +3309,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.050084530335538</v>
+      </c>
+      <c r="C81">
         <v>1.008198737394441</v>
-      </c>
-      <c r="C81">
-        <v>0.9920756891749113</v>
       </c>
       <c r="D81">
         <v>1.028844770536613</v>
       </c>
       <c r="E81">
-        <v>1.050084530335538</v>
+        <v>0.8592817784533536</v>
       </c>
       <c r="F81">
-        <v>0.8592817784533536</v>
+        <v>0.9920756891749113</v>
       </c>
       <c r="G81">
-        <v>0.9946108677440395</v>
+        <v>0.9949009119498426</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3341,22 +3338,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.061676769636872</v>
+      </c>
+      <c r="C82">
         <v>0.994260883823891</v>
-      </c>
-      <c r="C82">
-        <v>0.9846316396119489</v>
       </c>
       <c r="D82">
         <v>1.025679758308157</v>
       </c>
       <c r="E82">
-        <v>1.061676769636872</v>
+        <v>0.8473114193425803</v>
       </c>
       <c r="F82">
-        <v>0.8473114193425803</v>
+        <v>0.9846316396119489</v>
       </c>
       <c r="G82">
-        <v>0.9898691004073943</v>
+        <v>0.9902543260575188</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3370,22 +3367,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.07032218784006</v>
+      </c>
+      <c r="C83">
         <v>0.9480200049192425</v>
-      </c>
-      <c r="C83">
-        <v>0.9554317548746519</v>
       </c>
       <c r="D83">
         <v>1.000431592576608</v>
       </c>
       <c r="E83">
-        <v>1.07032218784006</v>
+        <v>0.8371651149534486</v>
       </c>
       <c r="F83">
-        <v>0.8371651149534486</v>
+        <v>0.9554317548746519</v>
       </c>
       <c r="G83">
-        <v>0.9684646296761715</v>
+        <v>0.9690390818409985</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3399,22 +3396,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.059070970919242</v>
+      </c>
+      <c r="C84">
         <v>0.927687136181028</v>
-      </c>
-      <c r="C84">
-        <v>0.9644126404764194</v>
       </c>
       <c r="D84">
         <v>1.000071932096101</v>
       </c>
       <c r="E84">
-        <v>1.059070970919242</v>
+        <v>0.8344290328709862</v>
       </c>
       <c r="F84">
-        <v>0.8344290328709862</v>
+        <v>0.9644126404764194</v>
       </c>
       <c r="G84">
-        <v>0.9641082002488672</v>
+        <v>0.9645814919010813</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3428,22 +3425,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.034243889231045</v>
+      </c>
+      <c r="C85">
         <v>0.9358858735754694</v>
-      </c>
-      <c r="C85">
-        <v>0.9444817980981655</v>
       </c>
       <c r="D85">
         <v>1.000143864192202</v>
       </c>
       <c r="E85">
-        <v>1.034243889231045</v>
+        <v>0.8416872506175186</v>
       </c>
       <c r="F85">
-        <v>0.8416872506175186</v>
+        <v>0.9444817980981655</v>
       </c>
       <c r="G85">
-        <v>0.9592386174429578</v>
+        <v>0.9596874278986223</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3457,22 +3454,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.042232756646698</v>
+      </c>
+      <c r="C86">
         <v>0.9504796261375748</v>
-      </c>
-      <c r="C86">
-        <v>0.9481798098165403</v>
       </c>
       <c r="D86">
         <v>1.000503524672709</v>
       </c>
       <c r="E86">
-        <v>1.042232756646698</v>
+        <v>0.8394451833555007</v>
       </c>
       <c r="F86">
-        <v>0.8394451833555007</v>
+        <v>0.9481798098165403</v>
       </c>
       <c r="G86">
-        <v>0.9634151273545563</v>
+        <v>0.9638853920887069</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3486,22 +3483,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.01493366176604</v>
+      </c>
+      <c r="C87">
         <v>0.9430187751086332</v>
-      </c>
-      <c r="C87">
-        <v>0.9260877917587168</v>
       </c>
       <c r="D87">
         <v>0.9832398216084016</v>
       </c>
       <c r="E87">
-        <v>1.01493366176604</v>
+        <v>0.8331369941098233</v>
       </c>
       <c r="F87">
-        <v>0.8331369941098233</v>
+        <v>0.9260877917587168</v>
       </c>
       <c r="G87">
-        <v>0.9471489157177396</v>
+        <v>0.9475931450677761</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3515,22 +3512,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.029181924300851</v>
+      </c>
+      <c r="C88">
         <v>0.9664671640567353</v>
-      </c>
-      <c r="C88">
-        <v>0.9557679377581405</v>
       </c>
       <c r="D88">
         <v>0.9917278089483527</v>
       </c>
       <c r="E88">
-        <v>1.029181924300851</v>
+        <v>0.8823104693140795</v>
       </c>
       <c r="F88">
-        <v>0.8823104693140795</v>
+        <v>0.9557679377581405</v>
       </c>
       <c r="G88">
-        <v>0.9694463892079488</v>
+        <v>0.9698134591406624</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3544,22 +3541,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.056542139941927</v>
+      </c>
+      <c r="C89">
         <v>0.9776174469131753</v>
-      </c>
-      <c r="C89">
-        <v>1.002449332436846</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1.056542139941927</v>
+        <v>0.8695040851225537</v>
       </c>
       <c r="F89">
-        <v>0.8695040851225537</v>
+        <v>1.002449332436846</v>
       </c>
       <c r="G89">
-        <v>0.9844089796251428</v>
+        <v>0.9846794436626682</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3573,22 +3570,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.062286982467133</v>
+      </c>
+      <c r="C90">
         <v>0.9699106337624006</v>
-      </c>
-      <c r="C90">
-        <v>1.003361828834886</v>
       </c>
       <c r="D90">
         <v>1.004100129477773</v>
       </c>
       <c r="E90">
-        <v>1.062286982467133</v>
+        <v>0.8729241877256317</v>
       </c>
       <c r="F90">
-        <v>0.8729241877256317</v>
+        <v>1.003361828834886</v>
       </c>
       <c r="G90">
-        <v>0.9861192044510101</v>
+        <v>0.9864138302191713</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3602,22 +3599,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.063405200890892</v>
+      </c>
+      <c r="C91">
         <v>0.9844223989505617</v>
-      </c>
-      <c r="C91">
-        <v>1.040149841513784</v>
       </c>
       <c r="D91">
         <v>0.993094518774277</v>
       </c>
       <c r="E91">
-        <v>1.063405200890892</v>
+        <v>0.8679460383811514</v>
       </c>
       <c r="F91">
-        <v>0.8679460383811514</v>
+        <v>1.040149841513784</v>
       </c>
       <c r="G91">
-        <v>0.9905714265543374</v>
+        <v>0.9906877033512229</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3631,22 +3628,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.046147145755339</v>
+      </c>
+      <c r="C92">
         <v>0.9827826514716734</v>
-      </c>
-      <c r="C92">
-        <v>1.044616271251561</v>
       </c>
       <c r="D92">
         <v>1.014674147604661</v>
       </c>
       <c r="E92">
-        <v>1.046147145755339</v>
+        <v>0.8780543416302489</v>
       </c>
       <c r="F92">
-        <v>0.8780543416302489</v>
+        <v>1.044616271251561</v>
       </c>
       <c r="G92">
-        <v>0.9969935309911102</v>
+        <v>0.997001185363629</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3660,22 +3657,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.037479217900415</v>
+      </c>
+      <c r="C93">
         <v>0.9732721160941216</v>
-      </c>
-      <c r="C93">
-        <v>1.040437998271059</v>
       </c>
       <c r="D93">
         <v>1.013739030355344</v>
       </c>
       <c r="E93">
-        <v>1.037479217900415</v>
+        <v>0.8647539426182785</v>
       </c>
       <c r="F93">
-        <v>0.8647539426182785</v>
+        <v>1.040437998271059</v>
       </c>
       <c r="G93">
-        <v>0.9907330709449289</v>
+        <v>0.9907182770430758</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3689,22 +3686,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.043417971937289</v>
+      </c>
+      <c r="C94">
         <v>0.9822907272280068</v>
-      </c>
-      <c r="C94">
-        <v>1.046825473057343</v>
       </c>
       <c r="D94">
         <v>1.013163573586534</v>
       </c>
       <c r="E94">
-        <v>1.043417971937289</v>
+        <v>0.8749762492874787</v>
       </c>
       <c r="F94">
-        <v>0.8749762492874787</v>
+        <v>1.046825473057343</v>
       </c>
       <c r="G94">
-        <v>0.9958287798341526</v>
+        <v>0.9958117423285524</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3718,22 +3715,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.069950512542225</v>
+      </c>
+      <c r="C95">
         <v>1.014429777814217</v>
-      </c>
-      <c r="C95">
-        <v>1.060320814523101</v>
       </c>
       <c r="D95">
         <v>1.019421665947346</v>
       </c>
       <c r="E95">
-        <v>1.069950512542225</v>
+        <v>0.9109633288998671</v>
       </c>
       <c r="F95">
-        <v>0.9109633288998671</v>
+        <v>1.060320814523101</v>
       </c>
       <c r="G95">
-        <v>1.015967534297913</v>
+        <v>1.016015682788009</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3747,22 +3744,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.083262947294888</v>
+      </c>
+      <c r="C96">
         <v>1.002459621218332</v>
-      </c>
-      <c r="C96">
-        <v>1.051195850542695</v>
       </c>
       <c r="D96">
         <v>1.031650122284563</v>
       </c>
       <c r="E96">
-        <v>1.083262947294888</v>
+        <v>0.9098992969789094</v>
       </c>
       <c r="F96">
-        <v>0.9098992969789094</v>
+        <v>1.051195850542695</v>
       </c>
       <c r="G96">
-        <v>1.018437740858457</v>
+        <v>1.018598076342218</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3776,22 +3773,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.097915064907148</v>
+      </c>
+      <c r="C97">
         <v>1.044929080921538</v>
-      </c>
-      <c r="C97">
-        <v>1.054605705503794</v>
       </c>
       <c r="D97">
         <v>1.048554164868364</v>
       </c>
       <c r="E97">
-        <v>1.097915064907148</v>
+        <v>0.9118753562606878</v>
       </c>
       <c r="F97">
-        <v>0.9118753562606878</v>
+        <v>1.054605705503794</v>
       </c>
       <c r="G97">
-        <v>1.03455920759156</v>
+        <v>1.034775754388576</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3805,22 +3802,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.09467263401467</v>
+      </c>
+      <c r="C98">
         <v>1.034762646552431</v>
-      </c>
-      <c r="C98">
-        <v>1.100230525405821</v>
       </c>
       <c r="D98">
         <v>1.035606387570134</v>
       </c>
       <c r="E98">
-        <v>1.09467263401467</v>
+        <v>0.9207676230286909</v>
       </c>
       <c r="F98">
-        <v>0.9207676230286909</v>
+        <v>1.100230525405821</v>
       </c>
       <c r="G98">
-        <v>1.037246589543201</v>
+        <v>1.037218800086246</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3834,22 +3831,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.105601775528016</v>
+      </c>
+      <c r="C99">
         <v>1.060506681970977</v>
-      </c>
-      <c r="C99">
-        <v>1.15565267505523</v>
       </c>
       <c r="D99">
         <v>1.034671270320817</v>
       </c>
       <c r="E99">
-        <v>1.105601775528016</v>
+        <v>0.9160554816644499</v>
       </c>
       <c r="F99">
-        <v>0.9160554816644499</v>
+        <v>1.15565267505523</v>
       </c>
       <c r="G99">
-        <v>1.051762057337082</v>
+        <v>1.051511802839446</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3863,22 +3860,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.138931189914788</v>
+      </c>
+      <c r="C100">
         <v>1.072230876445027</v>
-      </c>
-      <c r="C100">
-        <v>1.144894822783594</v>
       </c>
       <c r="D100">
         <v>1.031578190188462</v>
       </c>
       <c r="E100">
-        <v>1.138931189914788</v>
+        <v>0.9023370701121033</v>
       </c>
       <c r="F100">
-        <v>0.9023370701121033</v>
+        <v>1.144894822783594</v>
       </c>
       <c r="G100">
-        <v>1.054141434535495</v>
+        <v>1.054111616371151</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3892,22 +3889,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.139265433952078</v>
+      </c>
+      <c r="C101">
         <v>1.059604820857588</v>
-      </c>
-      <c r="C101">
-        <v>1.139131687638075</v>
       </c>
       <c r="D101">
         <v>1.029420227305424</v>
       </c>
       <c r="E101">
-        <v>1.139265433952078</v>
+        <v>0.8915067452023561</v>
       </c>
       <c r="F101">
-        <v>0.8915067452023561</v>
+        <v>1.139131687638075</v>
       </c>
       <c r="G101">
-        <v>1.048571291015534</v>
+        <v>1.048571959747104</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3921,22 +3918,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.123094689845917</v>
+      </c>
+      <c r="C102">
         <v>1.043617282938427</v>
-      </c>
-      <c r="C102">
-        <v>1.133560656997407</v>
       </c>
       <c r="D102">
         <v>1.029276363113221</v>
       </c>
       <c r="E102">
-        <v>1.123094689845917</v>
+        <v>0.8892646779403383</v>
       </c>
       <c r="F102">
-        <v>0.8892646779403383</v>
+        <v>1.133560656997407</v>
       </c>
       <c r="G102">
-        <v>1.041820745301187</v>
+        <v>1.04176841546543</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3950,22 +3947,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.133713855178777</v>
+      </c>
+      <c r="C103">
         <v>1.066655735016807</v>
-      </c>
-      <c r="C103">
-        <v>1.162376332725003</v>
       </c>
       <c r="D103">
         <v>1.033951949359804</v>
       </c>
       <c r="E103">
-        <v>1.133713855178777</v>
+        <v>0.8954968649059473</v>
       </c>
       <c r="F103">
-        <v>0.8954968649059473</v>
+        <v>1.162376332725003</v>
       </c>
       <c r="G103">
-        <v>1.054959363618823</v>
+        <v>1.054816051231092</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3979,22 +3976,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.137965287572252</v>
+      </c>
+      <c r="C104">
         <v>1.09067803558252</v>
-      </c>
-      <c r="C104">
-        <v>1.137114590337144</v>
       </c>
       <c r="D104">
         <v>1.031722054380664</v>
       </c>
       <c r="E104">
-        <v>1.137965287572252</v>
+        <v>0.8968649059471785</v>
       </c>
       <c r="F104">
-        <v>0.8968649059471785</v>
+        <v>1.137114590337144</v>
       </c>
       <c r="G104">
-        <v>1.054940006282668</v>
+        <v>1.054944259768844</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -4008,22 +4005,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.118663666058374</v>
+      </c>
+      <c r="C105">
         <v>1.083955070919078</v>
-      </c>
-      <c r="C105">
-        <v>1.128710018249928</v>
       </c>
       <c r="D105">
         <v>1.02754999280679</v>
       </c>
       <c r="E105">
-        <v>1.118663666058374</v>
+        <v>0.8987269618088544</v>
       </c>
       <c r="F105">
-        <v>0.8987269618088544</v>
+        <v>1.128710018249928</v>
       </c>
       <c r="G105">
-        <v>1.048114016383065</v>
+        <v>1.048063784622107</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4037,22 +4034,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.134439161038213</v>
+      </c>
+      <c r="C106">
         <v>1.097974911863573</v>
-      </c>
-      <c r="C106">
-        <v>1.127413312842186</v>
       </c>
       <c r="D106">
         <v>1.022802474464106</v>
       </c>
       <c r="E106">
-        <v>1.134439161038213</v>
+        <v>0.8920767623028691</v>
       </c>
       <c r="F106">
-        <v>0.8920767623028691</v>
+        <v>1.127413312842186</v>
       </c>
       <c r="G106">
-        <v>1.050215942124413</v>
+        <v>1.050251071365393</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4066,22 +4063,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.146010625758602</v>
+      </c>
+      <c r="C107">
         <v>1.113388538165123</v>
-      </c>
-      <c r="C107">
-        <v>1.169964460666603</v>
       </c>
       <c r="D107">
         <v>1.030139548266436</v>
       </c>
       <c r="E107">
-        <v>1.146010625758602</v>
+        <v>0.8914307429222877</v>
       </c>
       <c r="F107">
-        <v>0.8914307429222877</v>
+        <v>1.169964460666603</v>
       </c>
       <c r="G107">
-        <v>1.064293886561664</v>
+        <v>1.064174117387124</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4095,22 +4092,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.136699426191269</v>
+      </c>
+      <c r="C108">
         <v>1.095351315897352</v>
-      </c>
-      <c r="C108">
-        <v>1.182163096724618</v>
       </c>
       <c r="D108">
         <v>1.021004172061574</v>
       </c>
       <c r="E108">
-        <v>1.136699426191269</v>
+        <v>0.8793083792513775</v>
       </c>
       <c r="F108">
-        <v>0.8793083792513775</v>
+        <v>1.182163096724618</v>
       </c>
       <c r="G108">
-        <v>1.056750114824091</v>
+        <v>1.056522796471424</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4124,22 +4121,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.123101306249202</v>
+      </c>
+      <c r="C109">
         <v>1.110027055833402</v>
-      </c>
-      <c r="C109">
-        <v>1.177408510229565</v>
       </c>
       <c r="D109">
         <v>1.013954826643648</v>
       </c>
       <c r="E109">
-        <v>1.123101306249202</v>
+        <v>0.8608398251947558</v>
       </c>
       <c r="F109">
-        <v>0.8608398251947558</v>
+        <v>1.177408510229565</v>
       </c>
       <c r="G109">
-        <v>1.050819425711361</v>
+        <v>1.05054788969146</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4153,22 +4150,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.090305136952376</v>
+      </c>
+      <c r="C110">
         <v>1.074936459785193</v>
-      </c>
-      <c r="C110">
-        <v>1.10147920468735</v>
       </c>
       <c r="D110">
         <v>1.007121277514027</v>
       </c>
       <c r="E110">
-        <v>1.090305136952376</v>
+        <v>0.8558996769903097</v>
       </c>
       <c r="F110">
-        <v>0.8558996769903097</v>
+        <v>1.10147920468735</v>
       </c>
       <c r="G110">
-        <v>1.023464478840504</v>
+        <v>1.02340860850183</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4182,22 +4179,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.092001712306663</v>
+      </c>
+      <c r="C111">
         <v>1.162662949905714</v>
-      </c>
-      <c r="C111">
-        <v>1.133128421861493</v>
       </c>
       <c r="D111">
         <v>1.005107178823191</v>
       </c>
       <c r="E111">
-        <v>1.092001712306663</v>
+        <v>0.8542656279688392</v>
       </c>
       <c r="F111">
-        <v>0.8542656279688392</v>
+        <v>1.133128421861493</v>
       </c>
       <c r="G111">
-        <v>1.043104013357536</v>
+        <v>1.042898379809762</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4211,22 +4208,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.088202832644187</v>
+      </c>
+      <c r="C112">
         <v>1.171435598917767</v>
-      </c>
-      <c r="C112">
-        <v>1.187926231870138</v>
       </c>
       <c r="D112">
         <v>1.003093080132355</v>
       </c>
       <c r="E112">
-        <v>1.088202832644187</v>
+        <v>0.8541896256887705</v>
       </c>
       <c r="F112">
-        <v>0.8541896256887705</v>
+        <v>1.187926231870138</v>
       </c>
       <c r="G112">
-        <v>1.052606983302559</v>
+        <v>1.052108366306429</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4240,22 +4237,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.09055551923474</v>
+      </c>
+      <c r="C113">
         <v>1.177830614085431</v>
-      </c>
-      <c r="C113">
-        <v>1.192968975122467</v>
       </c>
       <c r="D113">
         <v>1.006330024456913</v>
       </c>
       <c r="E113">
-        <v>1.09055551923474</v>
+        <v>0.849895496864906</v>
       </c>
       <c r="F113">
-        <v>0.849895496864906</v>
+        <v>1.192968975122467</v>
       </c>
       <c r="G113">
-        <v>1.055299255892565</v>
+        <v>1.054787188613127</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4269,22 +4266,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.101601974667874</v>
+      </c>
+      <c r="C114">
         <v>1.176026891858654</v>
-      </c>
-      <c r="C114">
-        <v>1.193593314763231</v>
       </c>
       <c r="D114">
         <v>1.0168321104877</v>
       </c>
       <c r="E114">
-        <v>1.101601974667874</v>
+        <v>0.8526695800874026</v>
       </c>
       <c r="F114">
-        <v>0.8526695800874026</v>
+        <v>1.193593314763231</v>
       </c>
       <c r="G114">
-        <v>1.060844838121282</v>
+        <v>1.060384881420805</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4298,22 +4295,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.1160717247728</v>
+      </c>
+      <c r="C115">
         <v>1.231778306140854</v>
-      </c>
-      <c r="C115">
-        <v>1.227211603112093</v>
       </c>
       <c r="D115">
         <v>1.018990073370738</v>
       </c>
       <c r="E115">
-        <v>1.1160717247728</v>
+        <v>0.859737792133764</v>
       </c>
       <c r="F115">
-        <v>0.859737792133764</v>
+        <v>1.227211603112093</v>
       </c>
       <c r="G115">
-        <v>1.080303579074928</v>
+        <v>1.079747879683231</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4327,22 +4324,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.118823361974031</v>
+      </c>
+      <c r="C116">
         <v>1.212265311142084</v>
-      </c>
-      <c r="C116">
-        <v>1.212563634617232</v>
       </c>
       <c r="D116">
         <v>1.01294777729823</v>
       </c>
       <c r="E116">
-        <v>1.118823361974031</v>
+        <v>0.8619798593957819</v>
       </c>
       <c r="F116">
-        <v>0.8619798593957819</v>
+        <v>1.212563634617232</v>
       </c>
       <c r="G116">
-        <v>1.073326218813519</v>
+        <v>1.072857517450303</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4356,22 +4353,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.151759192902441</v>
+      </c>
+      <c r="C117">
         <v>1.227678937443634</v>
-      </c>
-      <c r="C117">
-        <v>1.235616175199308</v>
       </c>
       <c r="D117">
         <v>1.028197381671702</v>
       </c>
       <c r="E117">
-        <v>1.151759192902441</v>
+        <v>0.8825764772943188</v>
       </c>
       <c r="F117">
-        <v>0.8825764772943188</v>
+        <v>1.235616175199308</v>
       </c>
       <c r="G117">
-        <v>1.093730690683427</v>
+        <v>1.093311405771943</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4385,28 +4382,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.227678937443634</v>
+        <v>1.158595950178206</v>
       </c>
       <c r="C118">
-        <v>1.235616175199308</v>
+        <v>1.248913667295237</v>
       </c>
       <c r="D118">
-        <v>1.028197381671702</v>
+        <v>1.021435764638182</v>
       </c>
       <c r="E118">
-        <v>1.158596065849592</v>
+        <v>0.8717461523845715</v>
       </c>
       <c r="F118">
-        <v>0.8825764772943188</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.094858774719707</v>
+        <v>1.099279417875334</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.157231721850478</v>
+      </c>
+      <c r="C119">
+        <v>1.23579568746413</v>
+      </c>
+      <c r="D119">
+        <v>1.013954826643648</v>
+      </c>
+      <c r="E119">
+        <v>0.858217746532396</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.092607853255683</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.164615812991016</v>
+      </c>
+      <c r="C120">
+        <v>1.295564483069607</v>
+      </c>
+      <c r="D120">
+        <v>1.024241116386131</v>
+      </c>
+      <c r="E120">
+        <v>0.8644119323579709</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.113987377856307</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.142112314972629</v>
+      </c>
+      <c r="C121">
+        <v>1.264245306222842</v>
+      </c>
+      <c r="D121">
+        <v>1.031074665515753</v>
+      </c>
+      <c r="E121">
+        <v>0.8527835835075053</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.102344937817122</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.121508187382649</v>
+      </c>
+      <c r="C122">
+        <v>1.24358448798885</v>
+      </c>
+      <c r="D122">
+        <v>1.009926629261977</v>
+      </c>
+      <c r="E122">
+        <v>0.8252707581227436</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.083058619346432</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.141999211491295</v>
+      </c>
+      <c r="C123">
+        <v>1.296466344182996</v>
+      </c>
+      <c r="D123">
+        <v>0.9974823766364551</v>
+      </c>
+      <c r="E123">
+        <v>0.8244347330419913</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.097127678571251</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.172960740067379</v>
+      </c>
+      <c r="C124">
+        <v>1.269656472903173</v>
+      </c>
+      <c r="D124">
+        <v>1.002589555459646</v>
+      </c>
+      <c r="E124">
+        <v>0.8333650009500285</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.101253825785322</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.189142449820943</v>
+      </c>
+      <c r="C125">
+        <v>1.307042715421825</v>
+      </c>
+      <c r="D125">
+        <v>1.010645950222989</v>
+      </c>
+      <c r="E125">
+        <v>0.8322629678890368</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.12503266684825</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.186521636957397</v>
+      </c>
+      <c r="C126">
+        <v>1.345740755923588</v>
+      </c>
+      <c r="D126">
+        <v>1.008775715724356</v>
+      </c>
+      <c r="E126">
+        <v>0.823826714801444</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.132920684044662</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.211938249432019</v>
+      </c>
+      <c r="C127">
+        <v>1.325243912437485</v>
+      </c>
+      <c r="D127">
+        <v>0.9976981729247589</v>
+      </c>
+      <c r="E127">
+        <v>0.822306669200076</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.133828652158813</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4518,18 +4776,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4561,213 +4819,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J2">
-        <v>81.61</v>
+        <v>4.356100082397461</v>
       </c>
       <c r="K2">
-        <v>8.33</v>
+        <v>25.67799949645996</v>
       </c>
       <c r="L2">
-        <v>20.06</v>
-      </c>
-      <c r="M2">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.6868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>133.48</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K3">
-        <v>9.199999999999999</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L3">
-        <v>4.83</v>
-      </c>
-      <c r="M3">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>21.55</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K4">
-        <v>4.32</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L4">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M4">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.5999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.165</v>
       </c>
       <c r="J5">
-        <v>24.53</v>
+        <v>1.657299995422363</v>
       </c>
       <c r="K5">
-        <v>4.14</v>
+        <v>13.48019981384277</v>
       </c>
       <c r="L5">
-        <v>11.05</v>
-      </c>
-      <c r="M5">
-        <v>13.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4.4625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="J6">
-        <v>14.36</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>1.76</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M6">
-        <v>4.46</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4785,19 +5025,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4805,19 +5045,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4825,19 +5065,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4845,19 +5085,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4865,19 +5105,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4885,19 +5125,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4905,19 +5145,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4925,19 +5165,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4945,19 +5185,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4965,19 +5205,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4985,19 +5225,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5005,19 +5245,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5025,19 +5265,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5045,19 +5285,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5065,19 +5305,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5085,19 +5325,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5105,19 +5345,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5125,19 +5365,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5145,19 +5385,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5165,19 +5405,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5185,19 +5425,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5215,120 +5455,120 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
